--- a/results_final/ei_ML.xlsx
+++ b/results_final/ei_ML.xlsx
@@ -620,88 +620,88 @@
         <v>1.012039502711086</v>
       </c>
       <c r="E3">
-        <v>0.841362356847443</v>
+        <v>0.8413623568474426</v>
       </c>
       <c r="F3">
-        <v>0.7125086302461747</v>
+        <v>0.7125086302461744</v>
       </c>
       <c r="G3">
-        <v>0.6135026960143926</v>
+        <v>0.6135026960143921</v>
       </c>
       <c r="H3">
-        <v>0.5362165170135348</v>
+        <v>0.5362165170135343</v>
       </c>
       <c r="I3">
-        <v>0.4750195982409886</v>
+        <v>0.4750195982409881</v>
       </c>
       <c r="J3">
-        <v>0.4259373598155748</v>
+        <v>0.4259373598155743</v>
       </c>
       <c r="K3">
-        <v>0.3861148638312754</v>
+        <v>0.3861148638312749</v>
       </c>
       <c r="L3">
-        <v>0.3534681019392063</v>
+        <v>0.3534681019392059</v>
       </c>
       <c r="M3">
-        <v>0.3264529251463124</v>
+        <v>0.326452925146312</v>
       </c>
       <c r="N3">
-        <v>0.3039092140025253</v>
+        <v>0.3039092140025249</v>
       </c>
       <c r="O3">
-        <v>0.2849540539855714</v>
+        <v>0.2849540539855711</v>
       </c>
       <c r="P3">
-        <v>0.2689073762943209</v>
+        <v>0.2689073762943205</v>
       </c>
       <c r="Q3">
-        <v>0.2552394518049731</v>
+        <v>0.2552394518049727</v>
       </c>
       <c r="R3">
-        <v>0.2435333159974118</v>
+        <v>0.2435333159974114</v>
       </c>
       <c r="S3">
-        <v>0.2334575391646762</v>
+        <v>0.2334575391646758</v>
       </c>
       <c r="T3">
-        <v>0.2247462595064355</v>
+        <v>0.2247462595064351</v>
       </c>
       <c r="U3">
-        <v>0.2171843785846418</v>
+        <v>0.2171843785846415</v>
       </c>
       <c r="V3">
-        <v>0.2105964691102387</v>
+        <v>0.2105964691102383</v>
       </c>
       <c r="W3">
-        <v>0.2048383817976898</v>
+        <v>0.2048383817976895</v>
       </c>
       <c r="X3">
-        <v>0.1997908350319818</v>
+        <v>0.1997908350319815</v>
       </c>
       <c r="Y3">
-        <v>0.1953544755006276</v>
+        <v>0.1953544755006273</v>
       </c>
       <c r="Z3">
-        <v>0.1914460402300958</v>
+        <v>0.1914460402300955</v>
       </c>
       <c r="AA3">
-        <v>0.187995350584431</v>
+        <v>0.1879953505844307</v>
       </c>
       <c r="AB3">
-        <v>0.1849429399550791</v>
+        <v>0.1849429399550788</v>
       </c>
       <c r="AC3">
-        <v>0.1822381679583207</v>
+        <v>0.1822381679583203</v>
       </c>
       <c r="AD3">
-        <v>0.1798377109677138</v>
+        <v>0.1798377109677135</v>
       </c>
       <c r="AE3">
-        <v>0.1777043458584019</v>
+        <v>0.1777043458584016</v>
       </c>
       <c r="AF3">
-        <v>0.1758059637748915</v>
+        <v>0.1758059637748912</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -911,91 +911,91 @@
         <v>1.815660816821453</v>
       </c>
       <c r="D6">
-        <v>1.128827733324684</v>
+        <v>1.128827733324683</v>
       </c>
       <c r="E6">
-        <v>0.7359720563715517</v>
+        <v>0.7359720563715511</v>
       </c>
       <c r="F6">
-        <v>0.5008084110876027</v>
+        <v>0.500808411087602</v>
       </c>
       <c r="G6">
-        <v>0.3541611134691117</v>
+        <v>0.3541611134691111</v>
       </c>
       <c r="H6">
-        <v>0.2592848898741669</v>
+        <v>0.2592848898741664</v>
       </c>
       <c r="I6">
-        <v>0.1958375237941432</v>
+        <v>0.1958375237941427</v>
       </c>
       <c r="J6">
-        <v>0.1521257526140613</v>
+        <v>0.1521257526140609</v>
       </c>
       <c r="K6">
-        <v>0.1211933770947977</v>
+        <v>0.1211933770947974</v>
       </c>
       <c r="L6">
-        <v>0.09877053819493659</v>
+        <v>0.09877053819493628</v>
       </c>
       <c r="M6">
-        <v>0.08216012659280159</v>
+        <v>0.08216012659280132</v>
       </c>
       <c r="N6">
-        <v>0.06961317007970733</v>
+        <v>0.06961317007970709</v>
       </c>
       <c r="O6">
-        <v>0.05996787943880794</v>
+        <v>0.05996787943880773</v>
       </c>
       <c r="P6">
-        <v>0.05243523806704879</v>
+        <v>0.0524352380670486</v>
       </c>
       <c r="Q6">
-        <v>0.04646835957281267</v>
+        <v>0.0464683595728125</v>
       </c>
       <c r="R6">
-        <v>0.04168099028765737</v>
+        <v>0.04168099028765721</v>
       </c>
       <c r="S6">
-        <v>0.03779554806969414</v>
+        <v>0.03779554806969399</v>
       </c>
       <c r="T6">
-        <v>0.03460931504271488</v>
+        <v>0.03460931504271474</v>
       </c>
       <c r="U6">
-        <v>0.03197202363436594</v>
+        <v>0.03197202363436581</v>
       </c>
       <c r="V6">
-        <v>0.02977073345241305</v>
+        <v>0.02977073345241292</v>
       </c>
       <c r="W6">
-        <v>0.02791945924692027</v>
+        <v>0.02791945924692015</v>
       </c>
       <c r="X6">
-        <v>0.0263519479360487</v>
+        <v>0.02635194793604859</v>
       </c>
       <c r="Y6">
-        <v>0.02501657629352922</v>
+        <v>0.02501657629352911</v>
       </c>
       <c r="Z6">
-        <v>0.02387269817348244</v>
+        <v>0.02387269817348233</v>
       </c>
       <c r="AA6">
-        <v>0.02288799648242589</v>
+        <v>0.02288799648242579</v>
       </c>
       <c r="AB6">
-        <v>0.02203654079614208</v>
+        <v>0.02203654079614199</v>
       </c>
       <c r="AC6">
-        <v>0.02129734671642256</v>
+        <v>0.02129734671642246</v>
       </c>
       <c r="AD6">
-        <v>0.02065329615621949</v>
+        <v>0.02065329615621939</v>
       </c>
       <c r="AE6">
-        <v>0.02009032012170849</v>
+        <v>0.0200903201217084</v>
       </c>
       <c r="AF6">
-        <v>0.01959677438914541</v>
+        <v>0.01959677438914531</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1208,88 +1208,88 @@
         <v>1.186468303903562</v>
       </c>
       <c r="E9">
-        <v>0.9249311166572339</v>
+        <v>0.9249311166572344</v>
       </c>
       <c r="F9">
-        <v>0.7392261386865361</v>
+        <v>0.7392261386865365</v>
       </c>
       <c r="G9">
-        <v>0.6041968366127146</v>
+        <v>0.6041968366127151</v>
       </c>
       <c r="H9">
-        <v>0.5038943236523636</v>
+        <v>0.5038943236523641</v>
       </c>
       <c r="I9">
-        <v>0.4279414788434251</v>
+        <v>0.4279414788434255</v>
       </c>
       <c r="J9">
-        <v>0.3694237466015132</v>
+        <v>0.3694237466015135</v>
       </c>
       <c r="K9">
-        <v>0.3236318019330918</v>
+        <v>0.3236318019330922</v>
       </c>
       <c r="L9">
-        <v>0.2872929282198194</v>
+        <v>0.2872929282198197</v>
       </c>
       <c r="M9">
-        <v>0.2580900762655896</v>
+        <v>0.2580900762655899</v>
       </c>
       <c r="N9">
-        <v>0.234354360730983</v>
+        <v>0.2343543607309832</v>
       </c>
       <c r="O9">
-        <v>0.2148644662071083</v>
+        <v>0.2148644662071086</v>
       </c>
       <c r="P9">
-        <v>0.1987133306220735</v>
+        <v>0.1987133306220737</v>
       </c>
       <c r="Q9">
-        <v>0.1852179896238434</v>
+        <v>0.1852179896238437</v>
       </c>
       <c r="R9">
-        <v>0.1738576131823519</v>
+        <v>0.1738576131823521</v>
       </c>
       <c r="S9">
-        <v>0.1642302694600271</v>
+        <v>0.1642302694600273</v>
       </c>
       <c r="T9">
-        <v>0.1560223261618064</v>
+        <v>0.1560223261618067</v>
       </c>
       <c r="U9">
-        <v>0.1489865067221268</v>
+        <v>0.1489865067221271</v>
       </c>
       <c r="V9">
-        <v>0.1429259565050818</v>
+        <v>0.1429259565050821</v>
       </c>
       <c r="W9">
-        <v>0.1376825371184652</v>
+        <v>0.1376825371184654</v>
       </c>
       <c r="X9">
-        <v>0.1331281319121211</v>
+        <v>0.1331281319121214</v>
       </c>
       <c r="Y9">
-        <v>0.1291581208665552</v>
+        <v>0.1291581208665554</v>
       </c>
       <c r="Z9">
-        <v>0.1256864354973684</v>
+        <v>0.1256864354973686</v>
       </c>
       <c r="AA9">
-        <v>0.1226417763960289</v>
+        <v>0.1226417763960291</v>
       </c>
       <c r="AB9">
-        <v>0.1199646946246303</v>
+        <v>0.1199646946246305</v>
       </c>
       <c r="AC9">
-        <v>0.1176053208863887</v>
+        <v>0.1176053208863889</v>
       </c>
       <c r="AD9">
-        <v>0.1155215846872482</v>
+        <v>0.1155215846872484</v>
       </c>
       <c r="AE9">
-        <v>0.1136778072107728</v>
+        <v>0.113677807210773</v>
       </c>
       <c r="AF9">
-        <v>0.112043581468617</v>
+        <v>0.1120435814686171</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.411902709128922</v>
       </c>
       <c r="C10">
-        <v>0.967878292945679</v>
+        <v>0.9678782929456795</v>
       </c>
       <c r="D10">
-        <v>0.6890252388513591</v>
+        <v>0.6890252388513599</v>
       </c>
       <c r="E10">
-        <v>0.5074673118818414</v>
+        <v>0.507467311881842</v>
       </c>
       <c r="F10">
-        <v>0.3853574157791977</v>
+        <v>0.3853574157791983</v>
       </c>
       <c r="G10">
-        <v>0.3007972104024731</v>
+        <v>0.3007972104024736</v>
       </c>
       <c r="H10">
-        <v>0.2406815941178428</v>
+        <v>0.2406815941178433</v>
       </c>
       <c r="I10">
-        <v>0.1969223667734148</v>
+        <v>0.1969223667734153</v>
       </c>
       <c r="J10">
-        <v>0.1643849286968757</v>
+        <v>0.1643849286968762</v>
       </c>
       <c r="K10">
-        <v>0.1397243999823784</v>
+        <v>0.1397243999823788</v>
       </c>
       <c r="L10">
-        <v>0.1207095090128812</v>
+        <v>0.1207095090128816</v>
       </c>
       <c r="M10">
-        <v>0.1058190334912715</v>
+        <v>0.1058190334912719</v>
       </c>
       <c r="N10">
-        <v>0.09399480839959601</v>
+        <v>0.09399480839959636</v>
       </c>
       <c r="O10">
-        <v>0.08448700903263547</v>
+        <v>0.08448700903263578</v>
       </c>
       <c r="P10">
-        <v>0.07675512752538771</v>
+        <v>0.07675512752538802</v>
       </c>
       <c r="Q10">
-        <v>0.07040331573567896</v>
+        <v>0.07040331573567925</v>
       </c>
       <c r="R10">
-        <v>0.06513737569873433</v>
+        <v>0.0651373756987346</v>
       </c>
       <c r="S10">
-        <v>0.06073565047678667</v>
+        <v>0.06073565047678692</v>
       </c>
       <c r="T10">
-        <v>0.05702900230409075</v>
+        <v>0.057029002304091</v>
       </c>
       <c r="U10">
-        <v>0.0538868319641132</v>
+        <v>0.05388683196411343</v>
       </c>
       <c r="V10">
-        <v>0.05120717793430371</v>
+        <v>0.05120717793430393</v>
       </c>
       <c r="W10">
-        <v>0.04890961153385809</v>
+        <v>0.04890961153385831</v>
       </c>
       <c r="X10">
-        <v>0.04693007492225589</v>
+        <v>0.04693007492225611</v>
       </c>
       <c r="Y10">
-        <v>0.04521708676023267</v>
+        <v>0.04521708676023288</v>
       </c>
       <c r="Z10">
-        <v>0.04372892246097031</v>
+        <v>0.04372892246097052</v>
       </c>
       <c r="AA10">
-        <v>0.04243149696389907</v>
+        <v>0.04243149696389927</v>
       </c>
       <c r="AB10">
-        <v>0.0412967594360603</v>
+        <v>0.0412967594360605</v>
       </c>
       <c r="AC10">
-        <v>0.04030146485337061</v>
+        <v>0.0403014648533708</v>
       </c>
       <c r="AD10">
-        <v>0.03942622573789142</v>
+        <v>0.0394262257378916</v>
       </c>
       <c r="AE10">
-        <v>0.03865477406676139</v>
+        <v>0.03865477406676157</v>
       </c>
       <c r="AF10">
-        <v>0.03797338222530521</v>
+        <v>0.03797338222530538</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1496,94 +1496,94 @@
         <v>2.434219760368954</v>
       </c>
       <c r="C12">
-        <v>2.071510060701156</v>
+        <v>2.071510060701155</v>
       </c>
       <c r="D12">
-        <v>1.791519682234283</v>
+        <v>1.791519682234282</v>
       </c>
       <c r="E12">
-        <v>1.572036650932539</v>
+        <v>1.572036650932537</v>
       </c>
       <c r="F12">
-        <v>1.397589541404608</v>
+        <v>1.397589541404606</v>
       </c>
       <c r="G12">
-        <v>1.257201583815379</v>
+        <v>1.257201583815378</v>
       </c>
       <c r="H12">
-        <v>1.142951150579508</v>
+        <v>1.142951150579506</v>
       </c>
       <c r="I12">
-        <v>1.049030569166241</v>
+        <v>1.049030569166239</v>
       </c>
       <c r="J12">
-        <v>0.971119268202956</v>
+        <v>0.971119268202954</v>
       </c>
       <c r="K12">
-        <v>0.9059590249182146</v>
+        <v>0.9059590249182126</v>
       </c>
       <c r="L12">
-        <v>0.8510614945927781</v>
+        <v>0.851061494592776</v>
       </c>
       <c r="M12">
-        <v>0.8045037804168355</v>
+        <v>0.8045037804168333</v>
       </c>
       <c r="N12">
-        <v>0.7647835217631073</v>
+        <v>0.7647835217631052</v>
       </c>
       <c r="O12">
-        <v>0.7307148129450609</v>
+        <v>0.7307148129450589</v>
       </c>
       <c r="P12">
-        <v>0.7013525201940878</v>
+        <v>0.7013525201940858</v>
       </c>
       <c r="Q12">
-        <v>0.675936606980774</v>
+        <v>0.675936606980772</v>
       </c>
       <c r="R12">
-        <v>0.6538507289598998</v>
+        <v>0.6538507289598978</v>
       </c>
       <c r="S12">
-        <v>0.6345911230156706</v>
+        <v>0.6345911230156687</v>
       </c>
       <c r="T12">
-        <v>0.6177430031119278</v>
+        <v>0.6177430031119259</v>
       </c>
       <c r="U12">
-        <v>0.6029624864653865</v>
+        <v>0.6029624864653846</v>
       </c>
       <c r="V12">
-        <v>0.5899626334135633</v>
+        <v>0.5899626334135614</v>
       </c>
       <c r="W12">
-        <v>0.5785025752722714</v>
+        <v>0.5785025752722697</v>
       </c>
       <c r="X12">
-        <v>0.5683789803577945</v>
+        <v>0.5683789803577928</v>
       </c>
       <c r="Y12">
-        <v>0.5594193050138154</v>
+        <v>0.5594193050138137</v>
       </c>
       <c r="Z12">
-        <v>0.5514764180269762</v>
+        <v>0.5514764180269744</v>
       </c>
       <c r="AA12">
-        <v>0.5444242896178778</v>
+        <v>0.544424289617876</v>
       </c>
       <c r="AB12">
-        <v>0.5381545115085621</v>
+        <v>0.5381545115085603</v>
       </c>
       <c r="AC12">
-        <v>0.5325734701992628</v>
+        <v>0.532573470199261</v>
       </c>
       <c r="AD12">
-        <v>0.5276000370034126</v>
+        <v>0.5276000370034108</v>
       </c>
       <c r="AE12">
-        <v>0.523163669453911</v>
+        <v>0.5231636694539092</v>
       </c>
       <c r="AF12">
-        <v>0.5192028421592814</v>
+        <v>0.5192028421592796</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1609,10 +1609,10 @@
         <v>1.469633305861133</v>
       </c>
       <c r="H13">
-        <v>1.496738786238963</v>
+        <v>1.496738786238964</v>
       </c>
       <c r="I13">
-        <v>1.52156089336311</v>
+        <v>1.521560893363111</v>
       </c>
       <c r="J13">
         <v>1.544252559398827</v>
@@ -1621,67 +1621,67 @@
         <v>1.564964256292409</v>
       </c>
       <c r="L13">
-        <v>1.583842186198431</v>
+        <v>1.583842186198432</v>
       </c>
       <c r="M13">
         <v>1.601026947091508</v>
       </c>
       <c r="N13">
-        <v>1.616652593819023</v>
+        <v>1.616652593819024</v>
       </c>
       <c r="O13">
-        <v>1.630846023324999</v>
+        <v>1.630846023325</v>
       </c>
       <c r="P13">
         <v>1.643726621574457</v>
       </c>
       <c r="Q13">
-        <v>1.655406118314959</v>
+        <v>1.65540611831496</v>
       </c>
       <c r="R13">
-        <v>1.66598860389937</v>
+        <v>1.665988603899371</v>
       </c>
       <c r="S13">
         <v>1.675570669773049</v>
       </c>
       <c r="T13">
-        <v>1.684241640811183</v>
+        <v>1.684241640811184</v>
       </c>
       <c r="U13">
-        <v>1.692083873457979</v>
+        <v>1.69208387345798</v>
       </c>
       <c r="V13">
-        <v>1.699173098594337</v>
+        <v>1.699173098594338</v>
       </c>
       <c r="W13">
-        <v>1.705578792297419</v>
+        <v>1.70557879229742</v>
       </c>
       <c r="X13">
-        <v>1.711364561222285</v>
+        <v>1.711364561222286</v>
       </c>
       <c r="Y13">
-        <v>1.716588532307115</v>
+        <v>1.716588532307116</v>
       </c>
       <c r="Z13">
-        <v>1.721303738954471</v>
+        <v>1.721303738954472</v>
       </c>
       <c r="AA13">
-        <v>1.725558497843594</v>
+        <v>1.725558497843595</v>
       </c>
       <c r="AB13">
-        <v>1.729396772149236</v>
+        <v>1.729396772149237</v>
       </c>
       <c r="AC13">
-        <v>1.732858518241109</v>
+        <v>1.73285851824111</v>
       </c>
       <c r="AD13">
-        <v>1.735980013967682</v>
+        <v>1.735980013967684</v>
       </c>
       <c r="AE13">
-        <v>1.738794167434973</v>
+        <v>1.738794167434974</v>
       </c>
       <c r="AF13">
-        <v>1.741330805814927</v>
+        <v>1.741330805814928</v>
       </c>
     </row>
   </sheetData>
